--- a/biology/Écologie/Glossaire_de_l'environnement_et_de_l'écologie/Glossaire_de_l'environnement_et_de_l'écologie.xlsx
+++ b/biology/Écologie/Glossaire_de_l'environnement_et_de_l'écologie/Glossaire_de_l'environnement_et_de_l'écologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce glossaire a pour objectifs de regrouper et de donner des explications courtes des termes utilisés pour les questions environnementales telles que l'écologie, la biodiversité, les conséquences du réchauffement climatique etc. Il doit être complété et enrichi...
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,10 +550,12 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abiotique (facteur) : adj. purement physico-chimiques, par opposition aux facteurs biotiques qui sont le fait d'êtres vivants.
-Acclimatée : se dit d'une espèce exotique bien installée dans un milieu mais ne s'y reproduisant pas de façon sexuée[1]
+Acclimatée : se dit d'une espèce exotique bien installée dans un milieu mais ne s'y reproduisant pas de façon sexuée
 Acide aminé : élément de base de la structure des protéines dans lesquelles ils sont liés les uns aux autres par des liaisons amide (ou liaison peptidique).
 Acidification des océans : diminution du pH de l’eau de mer due à l’absorption de dioxyde de carbone anthropique.
 Adaptation : ajustement fonctionnel de l’être vivant au milieu, et, en particulier.
@@ -579,7 +593,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,7 +611,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bassine : surface en eau lentique, d'origine anthropique.
 Bassin versant ː l’ensemble de la surface qui reçoit les eaux qui circulent vers un même cours d’eau ou vers une même nappe d’eau souterraine.
@@ -625,7 +641,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -643,7 +659,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Calotte glaciaire : masse de glace de la taille d'un continent, qui s’écoulent sous son propre poids. Actuellement existent les calottes du Groenland et de l’Antarctique.
 Canopée : étage supérieur de la forêt, directement influencée par le rayonnement solaire.
@@ -681,7 +699,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -699,7 +717,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Darwin : naturaliste et paléontologue dont les travaux sur l'évolution des espèces vivantes sur terre ont révolutionné la biologie.
 Débit d’un cours d’eau : volume d'eau qui traverse un point donné du cours d'eau dans un laps de temps déterminé.
@@ -723,7 +743,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -741,7 +761,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Eau souterraine : eau située sous la surface du sol.
 Écobuage : pratique agricole ancestrale consistant à brûler la végétation présente avant la mise en culture d'une terre.
@@ -790,7 +812,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -808,7 +830,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Facteurs anthropiques ; transformation de l'environnement liée la présence des êtres humains.
 Facteur de transcription : protéine nécessaire à l'initiation ou à la régulation de la transcription d'un gène chez tous les organismes vivants.
@@ -828,7 +852,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -846,7 +870,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gaz à effet de serre ou (GES) (émissions de...) : gaz (comme le dioxyde de carbone, le méthane, etc.) qui contribuent à l'effet de serre et au réchauffement de la planète.
 Génétique : étude les lois de l'hérédité.
@@ -872,7 +898,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -890,7 +916,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Habitat : ensemble d'éléments constituant l'environnement biophysique et offrant les ressources naturelles suffisantes pour permettre à une population d'une espèce de vivre et se reproduire normalement sur ce territoire.
 Hémiparasite : plante puisant sa sève brute dans une plante hôte, mais produisant sa sève élaborée grâce à la photosynthèse.
@@ -911,7 +939,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -929,7 +957,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Indicateur biologique : espèce végétale, fongique, animale ou bactérienne ou groupe d'espèces dont la présence ou l'état renseigne sur certaines caractéristiques écologiques de l'emplacement où elle se trouve.
 Ingénierie écologique : ensemble des connaissances scientifiques, des techniques et des pratiques qui prend en compte les mécanismes écologiques, appliqué à la conception et à la réalisation d’aménagements ou d’équipements, et qui est propre à assurer la protection de l’environnement.
@@ -949,7 +979,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -967,7 +997,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lessivage ou Lixiviation : processus vers le bas des minéraux du sol entraîné par la percolation de l’eau.
 Liste rouge des espèces menacées de l'UICN : inventaire mondial le plus complet de l'état de conservation global des espèces végétales et animales.
@@ -982,7 +1014,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1000,7 +1032,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Macrophagie : mode de nutrition d’un organisme vivant qui se nourrit de proies de grande taille par rapport à lui.
 Magnétosphère : région extérieure à la Terre où est localisé le champ magnétique engendré par cette planète.
@@ -1023,7 +1057,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1041,10 +1075,12 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Nappe phréatique ː expression désignant toutes les nappes d'eau souterraines.
-Naturalisée : se dit d'une espèce exotique dont les populations introduites dans un milieu se reproduisent de façon sexuée[1].
+Naturalisée : se dit d'une espèce exotique dont les populations introduites dans un milieu se reproduisent de façon sexuée.
 Néguentropie : entropie négative », variation générant une baisse du degré de désorganisation d'un système.
 Nimby : acronyme de l'expression anglaise «'Not In My BackYard», signifiant littéralement « pas dans mon arrière-cour ». Il décrit l'opposition de résidents à un projet local d’intérêt général dont ils considèrent qu’ils subiront des nuisances.
 Niveaux trophiques ! rang occupé par un être vivant au sein d’une chaîne alimentaire.
@@ -1061,7 +1097,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1079,7 +1115,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Observatoire national de la biodiversité (ONB) : dispositif partenarial piloté et animé par l'Office français de la biodiversité.
 Observatoire national de la mer et du littoral (ONML) : Observatoire de l'environnement  collectant et centralisant des données géographiques, démographique, climatique, économiques, sociologiques et environnementales sur la mer et le littoral.
@@ -1096,7 +1134,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1114,7 +1152,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Paléoécologie : étude des relations entre les êtres vivants fossiles avec leur milieu de vie, sous les aspects physico-chimiques (paléobiotope) aussi bien que biologiques (paléobiocénose).
 Parasitoïde : organisme se développant sur ou dans un autre organisme en deux phases : d’abord biotrophe puis prédateur, amenant à la mort finale de l’hôte.
@@ -1149,7 +1189,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,7 +1207,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Recyclage : processus de transformation des déchets en matériaux réutilisables afin de réduire la consommation de ressources naturelles.
 Réduction des émissions : action de diminution de gaz à effet de serre dues à la déforestation et à la dégradation des forêts
@@ -1188,7 +1230,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1206,7 +1248,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Sans labour Technique de travail du sol favorisant l'agriculture de conservation.
 Saprophyte ou saprobionte : qui tire les substances qui lui sont nécessaires des matières organiques en décomposition. Champignons saprophytes.
@@ -1220,7 +1264,7 @@
 Spéciation : formation, au cours de l'évolution biologique, d'espèces distinctes, génétiquement isolées les unes par rapport aux autres.
 Strate (botanique) ou étage, strate végétale : niveaux d'étagement vertical d'un peuplement végétal
 Stratégie nationale pour la biodiversité : déclinaison de la stratégie nationale de développement durable (SNDD), devant répondre à des enjeux locaux comme aux orientations de la Convention pour la diversité biologique.
-Sub-spontanées : espèces cultivées se reproduisant de façon de façon autonome par multiplication végétative à partir d'un pied mère[1]
+Sub-spontanées : espèces cultivées se reproduisant de façon de façon autonome par multiplication végétative à partir d'un pied mère
 Substance active : substance ou micro-organisme exerçant une action sur ou contre des organismes nuisibles.
 Superorganisme : organisme composé de nombreux individus, en général une unité d'animaux eusociaux, où la division du travail est hautement spécialisée et où les individus isolés ne sont pas aptes à vivre par eux-mêmes sur de longues périodes.
 Symbiose : association durable entre deux organismes vivants permettant un bénéfice réciproque.
@@ -1236,7 +1280,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1254,7 +1298,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Taxinomie ou taxonomie : branche des sciences naturelles ayant pour objet l'étude de la diversité du monde vivant en décrivant en termes d'espèces les organismes vivants et à les organiser en catégories hiérarchisées appelées taxons.
 Thermocline : dans un lac ou dans l’océan, c’est une zone de transition thermique rapide entre les eaux superficielles (généralement plus chaudes et oxygénées) et les eaux profondes (généralement plus froides et anoxiques)..
@@ -1269,7 +1315,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1287,7 +1333,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Upwelling : remontée vers la surface des eaux froides profondes, le long de certains littoraux océaniques.</t>
         </is>
@@ -1299,7 +1347,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1317,7 +1365,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Variabilité : indicateur de dispersion mesurant la variabilité des valeurs d’une série statistique.Principalement la variance, l'écart-type et l'écart interquartile.
 Végétal local est une espèce indigène ou un taxon, ou un groupement végétal dont la présence est ancienne.</t>
@@ -1330,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1348,7 +1398,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Xérophyte : plante adaptée à un milieu aride.
 Xylophage : organisme vivant se nourrissant de bois, lignivore étant un terme plus générique.</t>
@@ -1361,7 +1413,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27environnement_et_de_l%27%C3%A9cologie</t>
+          <t>Glossaire_de_l'environnement_et_de_l'écologie</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1379,7 +1431,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Zones humides : terrains, exploités ou non, habituellement inondés ou gorgés d'eau douce, salée ou saumâtre de façon permanente ou temporaire, ou dont la végétation, quand elle existe, y est dominée par des plantes hygrophiles pendant au moins une partie de l'année.
 Zone hyporhéique : ensemble des sédiments saturés en eau, situés au-dessous et à côtés d'un cours d'eau, contenant une certaine quantité d'eau de surface.
